--- a/2023/03项目/01 项目进度/跟进Demo进展.xlsx
+++ b/2023/03项目/01 项目进度/跟进Demo进展.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rosa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\10 MRD\2023\03项目\01 项目进度\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC9FFB3-230E-41CF-81AD-045EEF8B4D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D782F1-4BFC-4039-923C-40FBA6462D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>负责人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +170,25 @@
   </si>
   <si>
     <t>无合适的可以提供完整方案的方案商，一直未导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多美达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）语音控制
+2）降噪
+3）体感控制电话接挂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-13：
+1）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H9"/>
+  <dimension ref="C3:H10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -719,6 +738,26 @@
         <v>33</v>
       </c>
     </row>
+    <row r="10" spans="3:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="C10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2023/03项目/01 项目进度/跟进Demo进展.xlsx
+++ b/2023/03项目/01 项目进度/跟进Demo进展.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\10 MRD\2023\03项目\01 项目进度\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D782F1-4BFC-4039-923C-40FBA6462D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EF7BE9-9CC1-4090-B8FD-926050079DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>负责人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参考客户样机，实现环境降噪功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>算法已听过样机效果，初测当前单麦降噪算法不及样机，需要等待下一版进阶算法；
 根据侧面沟通了解，预计4月底前进阶算法不会完成；</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,7 +184,7 @@
   </si>
   <si>
     <t>4-13：
-1）</t>
+1）确认分工：九音负责</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,7 +579,7 @@
   <dimension ref="C3:H10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -603,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>1</v>
@@ -632,7 +628,7 @@
         <v>7</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>9</v>
@@ -651,31 +647,29 @@
       <c r="F5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="3:8" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="3:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -683,79 +677,79 @@
         <v>4</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="H7" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="3:8" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="H8" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="3:8" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="H9" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="3:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="C10" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="H10" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
